--- a/php_files/html.xlsx
+++ b/php_files/html.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA5997-E84A-465F-BEB5-AA90F64BCF9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC87CD1-D6B6-41DB-A994-4D39E32683A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>Vishal Patil</t>
   </si>
   <si>
-    <t>Prretika Shetty</t>
-  </si>
-  <si>
     <t>Sagar Mishra</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>Purva Shinde</t>
+  </si>
+  <si>
+    <t>Preetika Shetty</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,54 +381,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>52501</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>52502</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>52503</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>52504</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>52505</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>93</v>
@@ -436,21 +436,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>52506</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>95.3</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>52507</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>92</v>
@@ -458,10 +458,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>52508</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>85</v>
@@ -469,24 +469,24 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>52509</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>52510</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
